--- a/biology/Médecine/Agence_de_la_biomédecine/Agence_de_la_biomédecine.xlsx
+++ b/biology/Médecine/Agence_de_la_biomédecine/Agence_de_la_biomédecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agence_de_la_biom%C3%A9decine</t>
+          <t>Agence_de_la_biomédecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Agence de la biomédecine est un établissement public à caractère administratif français, qui s’inscrit dans le réseau de sécurité sanitaire (créé à la suite de l’affaire du sang contaminé)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agence de la biomédecine est un établissement public à caractère administratif français, qui s’inscrit dans le réseau de sécurité sanitaire (créé à la suite de l’affaire du sang contaminé).
 L'Agence intervient dans les domaines :
 du don d'organes (prélèvement, greffe d'organes et de tissus, avec un principe d'équité et de gratuité face au don) ;
 du prélèvement et de la greffe de moelle osseuse ;
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agence_de_la_biom%C3%A9decine</t>
+          <t>Agence_de_la_biomédecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'Agence de la biomédecine encadre, accompagne, évalue et informe dans ses domaines de compétence :
 prélèvement et greffe d'organes (priorité nationale depuis la loi de bioéthique de 2011) : l'Agence gère la liste nationale des malades en attente de greffe et le Registre national des refus (recensant toutes les personnes s'opposant au don d'éléments de leur corps après la mort, que les médecins consultent avant tout prélèvement). Elle communique aussi auprès du grand public et organise chaque 22 juin la journée de réflexion sur le don d'organes et la greffe. Elle organise des formations sur l'accueil des familles en deuil à l'hôpital, destinées aux professionnels de santé.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agence_de_la_biom%C3%A9decine</t>
+          <t>Agence_de_la_biomédecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,11 +570,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée dans le cadre de la révision des lois de bioéthique du 6 août 2004, l'Agence de la biomédecine a repris en 2005 les missions de l'Établissement français des greffes.
 Elle est aussi en partie issue du modèle britannique de l’« Human Fertilisation and Embryology Authority ».
-Elle a été dirigée par Carine Camby de 2005 à 2008, par Emmanuelle Prada-Bordenave de 2008 à 2014, puis par Anne Courrèges de 2015 à 2019[2]. Emmanuelle Cortot-Boucher a été nommée à la direction générale de l'Agence de la biomédecine le 31 octobre 2019[3].
+Elle a été dirigée par Carine Camby de 2005 à 2008, par Emmanuelle Prada-Bordenave de 2008 à 2014, puis par Anne Courrèges de 2015 à 2019. Emmanuelle Cortot-Boucher a été nommée à la direction générale de l'Agence de la biomédecine le 31 octobre 2019.
 </t>
         </is>
       </c>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agence_de_la_biom%C3%A9decine</t>
+          <t>Agence_de_la_biomédecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,11 +605,13 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Agence est placée sous l'autorité d'un directeur généra (nommé par décret) ; sa directrice générale est Emmanuelle Cortot-Boucher.
-Le conseil d'orientation est chargé de veiller à la cohérence de la politique médicale et scientifique de l'Agence, et de faire respecter les principes réglementaires et éthiques dans ses différentes activités. Le conseil d'orientation, composé de 24 membres, est présidé par Jean-François Guérin qui succède à Patrick Niaudet à compter du 22 juin 2018[4]
-Le conseil d'administration de l'Agence de la biomédecine est composé de 35 membres nommés par arrêté et décret ministériel[5] et est présidé par Jacques-Olivier Bay (56 ans au moment de sa nomination, membre de l'Agence de sécurité des médicaments, membre du conseil médico-scientifique de l'Agence de biomédecine (depuis 2004) et du CA depuis 2018, cancérologue, onco-hématologue, spécialiste de l'Ataxie télangiectasie, des greffes de cellules souches hématopoïétiques et des cellules génétiquement modifiées) depuis le 31 décembre 2021[6].
+Le conseil d'orientation est chargé de veiller à la cohérence de la politique médicale et scientifique de l'Agence, et de faire respecter les principes réglementaires et éthiques dans ses différentes activités. Le conseil d'orientation, composé de 24 membres, est présidé par Jean-François Guérin qui succède à Patrick Niaudet à compter du 22 juin 2018
+Le conseil d'administration de l'Agence de la biomédecine est composé de 35 membres nommés par arrêté et décret ministériel et est présidé par Jacques-Olivier Bay (56 ans au moment de sa nomination, membre de l'Agence de sécurité des médicaments, membre du conseil médico-scientifique de l'Agence de biomédecine (depuis 2004) et du CA depuis 2018, cancérologue, onco-hématologue, spécialiste de l'Ataxie télangiectasie, des greffes de cellules souches hématopoïétiques et des cellules génétiquement modifiées) depuis le 31 décembre 2021.
 L'autorité de tutelle de l'Agence est le ministère de la Santé.
 L'Agence de la biomédecine s'appuie sur une organisation territoriale pour la représenter auprès des ARS et travailler avec les professionnels de santé dans les hôpitaux. Cette organisation repose sur 4 SRA (services de régulation et d'appui) : Nord-Est, Sud-Est - La réunion, Grand-Ouest, Île-de-France – Centre – Antilles - Guyane) : elle coordonne l'ensemble le prélèvement et la greffe en relation avec les hôpitaux.
 </t>
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Agence_de_la_biom%C3%A9decine</t>
+          <t>Agence_de_la_biomédecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,10 +642,12 @@
           <t>Chiffres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 2018, l'Agence de la biomédecine comptait 258 collaborateurs[7] et a bénéficié d'un budget de fonctionnement de 68,2 millions d'euros.
-Voici quelques autres chiffres sur les activités de l'Agence[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 2018, l'Agence de la biomédecine comptait 258 collaborateurs et a bénéficié d'un budget de fonctionnement de 68,2 millions d'euros.
+Voici quelques autres chiffres sur les activités de l'Agence :
 Don d'organes : après huit années de forte hausse, l'activité du prélèvement et de la greffe d'organes a connu, en 2018, une baisse. Tous organes confondus, 5 805 greffes ont été pratiquées en France en 2018.
 Don de moelle osseuse : le registre des donneurs volontaires de moelle osseuse compte 290 342 personnes, dont 18 303 nouveaux donneurs enregistrés en 2018. Au cours de l'année 2018, 963 patients ont été greffés grâce à un donneur non-apparenté (français ou étranger).
 Don du vivant : en 2018, 561 greffes de rein et de foie ont été réalisées grâce aux donneurs.
